--- a/final_data_pipeline/output/311611longform.xlsx
+++ b/final_data_pipeline/output/311611longform.xlsx
@@ -987,7 +987,7 @@
         <v>44138.20517500199</v>
       </c>
       <c r="AA2">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB2">
         <v>8000</v>
@@ -1076,7 +1076,7 @@
         <v>138</v>
       </c>
       <c r="AA3">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB3">
         <v>8000</v>
@@ -1165,7 +1165,7 @@
         <v>138</v>
       </c>
       <c r="AA4">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB4">
         <v>8000</v>
@@ -1254,7 +1254,7 @@
         <v>138</v>
       </c>
       <c r="AA5">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB5">
         <v>8000</v>
@@ -1343,7 +1343,7 @@
         <v>138</v>
       </c>
       <c r="AA6">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB6">
         <v>8000</v>
@@ -1432,7 +1432,7 @@
         <v>138</v>
       </c>
       <c r="AA7">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB7">
         <v>8000</v>
@@ -1521,7 +1521,7 @@
         <v>138</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB8">
         <v>8000</v>
@@ -1610,7 +1610,7 @@
         <v>138</v>
       </c>
       <c r="AA9">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB9">
         <v>8000</v>
@@ -1699,7 +1699,7 @@
         <v>138</v>
       </c>
       <c r="AA10">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB10">
         <v>8000</v>
@@ -1788,7 +1788,7 @@
         <v>138</v>
       </c>
       <c r="AA11">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB11">
         <v>8000</v>
@@ -1880,7 +1880,7 @@
         <v>138</v>
       </c>
       <c r="AA12">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB12">
         <v>8000</v>
@@ -1972,7 +1972,7 @@
         <v>138</v>
       </c>
       <c r="AA13">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB13">
         <v>8000</v>
@@ -2061,7 +2061,7 @@
         <v>138</v>
       </c>
       <c r="AA14">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB14">
         <v>8000</v>
@@ -2150,7 +2150,7 @@
         <v>138</v>
       </c>
       <c r="AA15">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB15">
         <v>8000</v>
@@ -2239,7 +2239,7 @@
         <v>138</v>
       </c>
       <c r="AA16">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB16">
         <v>8000</v>
@@ -6084,7 +6084,7 @@
         <v>138</v>
       </c>
       <c r="AA59">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB59">
         <v>8000</v>
@@ -6173,7 +6173,7 @@
         <v>138</v>
       </c>
       <c r="AA60">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB60">
         <v>8000</v>
@@ -6262,7 +6262,7 @@
         <v>138</v>
       </c>
       <c r="AA61">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB61">
         <v>8000</v>
@@ -6351,7 +6351,7 @@
         <v>138</v>
       </c>
       <c r="AA62">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB62">
         <v>8000</v>
@@ -6443,7 +6443,7 @@
         <v>138</v>
       </c>
       <c r="AA63">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB63">
         <v>8000</v>
@@ -6532,7 +6532,7 @@
         <v>138</v>
       </c>
       <c r="AA64">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB64">
         <v>8000</v>
@@ -6621,7 +6621,7 @@
         <v>138</v>
       </c>
       <c r="AA65">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB65">
         <v>8000</v>
@@ -6710,7 +6710,7 @@
         <v>138</v>
       </c>
       <c r="AA66">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB66">
         <v>8000</v>
@@ -6799,7 +6799,7 @@
         <v>138</v>
       </c>
       <c r="AA67">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB67">
         <v>8000</v>
@@ -6888,7 +6888,7 @@
         <v>138</v>
       </c>
       <c r="AA68">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB68">
         <v>8000</v>
@@ -6977,7 +6977,7 @@
         <v>138</v>
       </c>
       <c r="AA69">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB69">
         <v>8000</v>
@@ -7066,7 +7066,7 @@
         <v>138</v>
       </c>
       <c r="AA70">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB70">
         <v>8000</v>
@@ -7155,7 +7155,7 @@
         <v>138</v>
       </c>
       <c r="AA71">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB71">
         <v>8000</v>
@@ -7247,7 +7247,7 @@
         <v>138</v>
       </c>
       <c r="AA72">
-        <v>10</v>
+        <v>-0.763888888888889</v>
       </c>
       <c r="AB72">
         <v>8000</v>
@@ -11911,7 +11911,7 @@
         <v>138</v>
       </c>
       <c r="AA124">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB124">
         <v>8000</v>
@@ -12000,7 +12000,7 @@
         <v>138</v>
       </c>
       <c r="AA125">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB125">
         <v>8000</v>
@@ -12089,7 +12089,7 @@
         <v>138</v>
       </c>
       <c r="AA126">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB126">
         <v>8000</v>
@@ -12178,7 +12178,7 @@
         <v>138</v>
       </c>
       <c r="AA127">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB127">
         <v>8000</v>
@@ -12267,7 +12267,7 @@
         <v>138</v>
       </c>
       <c r="AA128">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB128">
         <v>8000</v>
@@ -12356,7 +12356,7 @@
         <v>138</v>
       </c>
       <c r="AA129">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB129">
         <v>8000</v>
@@ -12445,7 +12445,7 @@
         <v>138</v>
       </c>
       <c r="AA130">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB130">
         <v>8000</v>
@@ -12534,7 +12534,7 @@
         <v>138</v>
       </c>
       <c r="AA131">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB131">
         <v>8000</v>
@@ -12623,7 +12623,7 @@
         <v>138</v>
       </c>
       <c r="AA132">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB132">
         <v>8000</v>
@@ -12712,7 +12712,7 @@
         <v>138</v>
       </c>
       <c r="AA133">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB133">
         <v>8000</v>
@@ -12804,7 +12804,7 @@
         <v>138</v>
       </c>
       <c r="AA134">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB134">
         <v>8000</v>
@@ -12893,7 +12893,7 @@
         <v>138</v>
       </c>
       <c r="AA135">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB135">
         <v>8000</v>
@@ -12982,7 +12982,7 @@
         <v>138</v>
       </c>
       <c r="AA136">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB136">
         <v>8000</v>
@@ -13071,7 +13071,7 @@
         <v>138</v>
       </c>
       <c r="AA137">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB137">
         <v>8000</v>
@@ -15041,7 +15041,7 @@
         <v>138</v>
       </c>
       <c r="AA159">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB159">
         <v>8000</v>
@@ -15130,7 +15130,7 @@
         <v>138</v>
       </c>
       <c r="AA160">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB160">
         <v>8000</v>
@@ -15219,7 +15219,7 @@
         <v>138</v>
       </c>
       <c r="AA161">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB161">
         <v>8000</v>
@@ -15308,7 +15308,7 @@
         <v>138</v>
       </c>
       <c r="AA162">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB162">
         <v>8000</v>
@@ -15397,7 +15397,7 @@
         <v>138</v>
       </c>
       <c r="AA163">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB163">
         <v>8000</v>
@@ -15486,7 +15486,7 @@
         <v>138</v>
       </c>
       <c r="AA164">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB164">
         <v>8000</v>
@@ -15575,7 +15575,7 @@
         <v>138</v>
       </c>
       <c r="AA165">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB165">
         <v>8000</v>
@@ -16919,7 +16919,7 @@
         <v>138</v>
       </c>
       <c r="AA180">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB180">
         <v>8000</v>
@@ -17011,7 +17011,7 @@
         <v>138</v>
       </c>
       <c r="AA181">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB181">
         <v>8000</v>
@@ -17100,7 +17100,7 @@
         <v>138</v>
       </c>
       <c r="AA182">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB182">
         <v>8000</v>
@@ -17189,7 +17189,7 @@
         <v>138</v>
       </c>
       <c r="AA183">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB183">
         <v>8000</v>
@@ -17278,7 +17278,7 @@
         <v>138</v>
       </c>
       <c r="AA184">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB184">
         <v>8000</v>
@@ -17367,7 +17367,7 @@
         <v>138</v>
       </c>
       <c r="AA185">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB185">
         <v>8000</v>
@@ -17456,7 +17456,7 @@
         <v>138</v>
       </c>
       <c r="AA186">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB186">
         <v>8000</v>
@@ -17545,7 +17545,7 @@
         <v>138</v>
       </c>
       <c r="AA187">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB187">
         <v>8000</v>
@@ -17634,7 +17634,7 @@
         <v>138</v>
       </c>
       <c r="AA188">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB188">
         <v>8000</v>
@@ -17723,7 +17723,7 @@
         <v>138</v>
       </c>
       <c r="AA189">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB189">
         <v>8000</v>
@@ -17812,7 +17812,7 @@
         <v>138</v>
       </c>
       <c r="AA190">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB190">
         <v>8000</v>
@@ -17901,7 +17901,7 @@
         <v>138</v>
       </c>
       <c r="AA191">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB191">
         <v>8000</v>
@@ -17990,7 +17990,7 @@
         <v>138</v>
       </c>
       <c r="AA192">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB192">
         <v>8000</v>
@@ -18079,7 +18079,7 @@
         <v>138</v>
       </c>
       <c r="AA193">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB193">
         <v>8000</v>
@@ -19420,7 +19420,7 @@
         <v>138</v>
       </c>
       <c r="AA208">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB208">
         <v>8000</v>
@@ -19509,7 +19509,7 @@
         <v>138</v>
       </c>
       <c r="AA209">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB209">
         <v>8000</v>
@@ -19598,7 +19598,7 @@
         <v>138</v>
       </c>
       <c r="AA210">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB210">
         <v>8000</v>
@@ -19687,7 +19687,7 @@
         <v>138</v>
       </c>
       <c r="AA211">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB211">
         <v>8000</v>
@@ -19776,7 +19776,7 @@
         <v>138</v>
       </c>
       <c r="AA212">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB212">
         <v>8000</v>
@@ -19868,7 +19868,7 @@
         <v>138</v>
       </c>
       <c r="AA213">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB213">
         <v>8000</v>
@@ -19960,7 +19960,7 @@
         <v>138</v>
       </c>
       <c r="AA214">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB214">
         <v>8000</v>
@@ -20049,7 +20049,7 @@
         <v>138</v>
       </c>
       <c r="AA215">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB215">
         <v>8000</v>
@@ -20138,7 +20138,7 @@
         <v>138</v>
       </c>
       <c r="AA216">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB216">
         <v>8000</v>
@@ -20227,7 +20227,7 @@
         <v>138</v>
       </c>
       <c r="AA217">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB217">
         <v>8000</v>
@@ -20316,7 +20316,7 @@
         <v>138</v>
       </c>
       <c r="AA218">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB218">
         <v>8000</v>
@@ -20405,7 +20405,7 @@
         <v>138</v>
       </c>
       <c r="AA219">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB219">
         <v>8000</v>
@@ -20494,7 +20494,7 @@
         <v>138</v>
       </c>
       <c r="AA220">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB220">
         <v>8000</v>
@@ -20583,7 +20583,7 @@
         <v>138</v>
       </c>
       <c r="AA221">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB221">
         <v>8000</v>
@@ -21915,7 +21915,7 @@
         <v>31090.90891717494</v>
       </c>
       <c r="AA236">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB236">
         <v>8000</v>
@@ -22004,7 +22004,7 @@
         <v>138</v>
       </c>
       <c r="AA237">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB237">
         <v>8000</v>
@@ -22093,7 +22093,7 @@
         <v>138</v>
       </c>
       <c r="AA238">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB238">
         <v>8000</v>
@@ -22182,7 +22182,7 @@
         <v>138</v>
       </c>
       <c r="AA239">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB239">
         <v>8000</v>
@@ -22271,7 +22271,7 @@
         <v>138</v>
       </c>
       <c r="AA240">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB240">
         <v>8000</v>
@@ -22360,7 +22360,7 @@
         <v>138</v>
       </c>
       <c r="AA241">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB241">
         <v>8000</v>
@@ -22449,7 +22449,7 @@
         <v>138</v>
       </c>
       <c r="AA242">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB242">
         <v>8000</v>
@@ -22541,7 +22541,7 @@
         <v>138</v>
       </c>
       <c r="AA243">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB243">
         <v>8000</v>
@@ -22633,7 +22633,7 @@
         <v>138</v>
       </c>
       <c r="AA244">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB244">
         <v>8000</v>
@@ -22722,7 +22722,7 @@
         <v>138</v>
       </c>
       <c r="AA245">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB245">
         <v>8000</v>
@@ -22811,7 +22811,7 @@
         <v>138</v>
       </c>
       <c r="AA246">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB246">
         <v>8000</v>
@@ -22900,7 +22900,7 @@
         <v>138</v>
       </c>
       <c r="AA247">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB247">
         <v>8000</v>
@@ -22989,7 +22989,7 @@
         <v>138</v>
       </c>
       <c r="AA248">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB248">
         <v>8000</v>
@@ -23078,7 +23078,7 @@
         <v>138</v>
       </c>
       <c r="AA249">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB249">
         <v>8000</v>
@@ -23167,7 +23167,7 @@
         <v>138</v>
       </c>
       <c r="AA250">
-        <v>10</v>
+        <v>1.791666666666668</v>
       </c>
       <c r="AB250">
         <v>8000</v>
@@ -24508,7 +24508,7 @@
         <v>138</v>
       </c>
       <c r="AA265">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB265">
         <v>8000</v>
@@ -24597,7 +24597,7 @@
         <v>138</v>
       </c>
       <c r="AA266">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB266">
         <v>8000</v>
@@ -24686,7 +24686,7 @@
         <v>138</v>
       </c>
       <c r="AA267">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB267">
         <v>8000</v>
@@ -24778,7 +24778,7 @@
         <v>138</v>
       </c>
       <c r="AA268">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB268">
         <v>8000</v>
@@ -24867,7 +24867,7 @@
         <v>138</v>
       </c>
       <c r="AA269">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB269">
         <v>8000</v>
@@ -24956,7 +24956,7 @@
         <v>138</v>
       </c>
       <c r="AA270">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB270">
         <v>8000</v>
@@ -25045,7 +25045,7 @@
         <v>138</v>
       </c>
       <c r="AA271">
-        <v>10</v>
+        <v>12.66820987654322</v>
       </c>
       <c r="AB271">
         <v>8000</v>
@@ -25760,7 +25760,7 @@
         <v>138</v>
       </c>
       <c r="AA279">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB279">
         <v>8000</v>
@@ -25849,7 +25849,7 @@
         <v>138</v>
       </c>
       <c r="AA280">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB280">
         <v>8000</v>
@@ -25938,7 +25938,7 @@
         <v>138</v>
       </c>
       <c r="AA281">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB281">
         <v>8000</v>
@@ -26027,7 +26027,7 @@
         <v>138</v>
       </c>
       <c r="AA282">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB282">
         <v>8000</v>
@@ -26116,7 +26116,7 @@
         <v>138</v>
       </c>
       <c r="AA283">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB283">
         <v>8000</v>
@@ -26208,7 +26208,7 @@
         <v>138</v>
       </c>
       <c r="AA284">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB284">
         <v>8000</v>
@@ -26297,7 +26297,7 @@
         <v>138</v>
       </c>
       <c r="AA285">
-        <v>10</v>
+        <v>5.462962962962945</v>
       </c>
       <c r="AB285">
         <v>8000</v>
@@ -26386,7 +26386,7 @@
         <v>138</v>
       </c>
       <c r="AA286">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB286">
         <v>8000</v>
@@ -26475,7 +26475,7 @@
         <v>138</v>
       </c>
       <c r="AA287">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB287">
         <v>8000</v>
@@ -26564,7 +26564,7 @@
         <v>138</v>
       </c>
       <c r="AA288">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB288">
         <v>8000</v>
@@ -26653,7 +26653,7 @@
         <v>138</v>
       </c>
       <c r="AA289">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB289">
         <v>8000</v>
@@ -26742,7 +26742,7 @@
         <v>138</v>
       </c>
       <c r="AA290">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB290">
         <v>8000</v>
@@ -26831,7 +26831,7 @@
         <v>138</v>
       </c>
       <c r="AA291">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB291">
         <v>8000</v>
@@ -26920,7 +26920,7 @@
         <v>138</v>
       </c>
       <c r="AA292">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB292">
         <v>8000</v>
@@ -27009,7 +27009,7 @@
         <v>138</v>
       </c>
       <c r="AA293">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB293">
         <v>8000</v>
@@ -27098,7 +27098,7 @@
         <v>138</v>
       </c>
       <c r="AA294">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB294">
         <v>8000</v>
@@ -27187,7 +27187,7 @@
         <v>138</v>
       </c>
       <c r="AA295">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB295">
         <v>8000</v>
@@ -27276,7 +27276,7 @@
         <v>138</v>
       </c>
       <c r="AA296">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB296">
         <v>8000</v>
@@ -27365,7 +27365,7 @@
         <v>138</v>
       </c>
       <c r="AA297">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB297">
         <v>8000</v>
@@ -27457,7 +27457,7 @@
         <v>138</v>
       </c>
       <c r="AA298">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB298">
         <v>8000</v>
@@ -27549,7 +27549,7 @@
         <v>138</v>
       </c>
       <c r="AA299">
-        <v>10</v>
+        <v>19.60879629629628</v>
       </c>
       <c r="AB299">
         <v>8000</v>
@@ -27641,7 +27641,7 @@
         <v>138</v>
       </c>
       <c r="AA300">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB300">
         <v>8000</v>
@@ -27733,7 +27733,7 @@
         <v>138</v>
       </c>
       <c r="AA301">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB301">
         <v>8000</v>
@@ -27822,7 +27822,7 @@
         <v>138</v>
       </c>
       <c r="AA302">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB302">
         <v>8000</v>
@@ -27911,7 +27911,7 @@
         <v>138</v>
       </c>
       <c r="AA303">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB303">
         <v>8000</v>
@@ -28000,7 +28000,7 @@
         <v>138</v>
       </c>
       <c r="AA304">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB304">
         <v>8000</v>
@@ -28089,7 +28089,7 @@
         <v>138</v>
       </c>
       <c r="AA305">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB305">
         <v>8000</v>
@@ -28178,7 +28178,7 @@
         <v>138</v>
       </c>
       <c r="AA306">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB306">
         <v>8000</v>
@@ -28267,7 +28267,7 @@
         <v>138</v>
       </c>
       <c r="AA307">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB307">
         <v>8000</v>
@@ -28359,7 +28359,7 @@
         <v>138</v>
       </c>
       <c r="AA308">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB308">
         <v>8000</v>
@@ -28448,7 +28448,7 @@
         <v>138</v>
       </c>
       <c r="AA309">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB309">
         <v>8000</v>
@@ -28537,7 +28537,7 @@
         <v>138</v>
       </c>
       <c r="AA310">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB310">
         <v>8000</v>
@@ -28626,7 +28626,7 @@
         <v>138</v>
       </c>
       <c r="AA311">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB311">
         <v>8000</v>
@@ -28715,7 +28715,7 @@
         <v>138</v>
       </c>
       <c r="AA312">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB312">
         <v>8000</v>
@@ -28804,7 +28804,7 @@
         <v>138</v>
       </c>
       <c r="AA313">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB313">
         <v>8000</v>
@@ -28893,7 +28893,7 @@
         <v>138</v>
       </c>
       <c r="AA314">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB314">
         <v>8000</v>
@@ -28982,7 +28982,7 @@
         <v>138</v>
       </c>
       <c r="AA315">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB315">
         <v>8000</v>
@@ -29071,7 +29071,7 @@
         <v>138</v>
       </c>
       <c r="AA316">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB316">
         <v>8000</v>
@@ -29160,7 +29160,7 @@
         <v>138</v>
       </c>
       <c r="AA317">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB317">
         <v>8000</v>
@@ -29249,7 +29249,7 @@
         <v>138</v>
       </c>
       <c r="AA318">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB318">
         <v>8000</v>
@@ -29338,7 +29338,7 @@
         <v>138</v>
       </c>
       <c r="AA319">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB319">
         <v>8000</v>
@@ -29427,7 +29427,7 @@
         <v>138</v>
       </c>
       <c r="AA320">
-        <v>10</v>
+        <v>14.96875</v>
       </c>
       <c r="AB320">
         <v>8000</v>
@@ -29519,7 +29519,7 @@
         <v>138</v>
       </c>
       <c r="AA321">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB321">
         <v>8000</v>
@@ -29608,7 +29608,7 @@
         <v>138</v>
       </c>
       <c r="AA322">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB322">
         <v>8000</v>
@@ -29697,7 +29697,7 @@
         <v>138</v>
       </c>
       <c r="AA323">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB323">
         <v>8000</v>
@@ -29786,7 +29786,7 @@
         <v>138</v>
       </c>
       <c r="AA324">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB324">
         <v>8000</v>
@@ -29875,7 +29875,7 @@
         <v>138</v>
       </c>
       <c r="AA325">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB325">
         <v>8000</v>
@@ -29964,7 +29964,7 @@
         <v>138</v>
       </c>
       <c r="AA326">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB326">
         <v>8000</v>
@@ -30056,7 +30056,7 @@
         <v>138</v>
       </c>
       <c r="AA327">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB327">
         <v>8000</v>
@@ -30145,7 +30145,7 @@
         <v>138</v>
       </c>
       <c r="AA328">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB328">
         <v>8000</v>
@@ -30234,7 +30234,7 @@
         <v>138</v>
       </c>
       <c r="AA329">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB329">
         <v>8000</v>
@@ -30323,7 +30323,7 @@
         <v>138</v>
       </c>
       <c r="AA330">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB330">
         <v>8000</v>
@@ -30412,7 +30412,7 @@
         <v>138</v>
       </c>
       <c r="AA331">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB331">
         <v>8000</v>
@@ -30501,7 +30501,7 @@
         <v>138</v>
       </c>
       <c r="AA332">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB332">
         <v>8000</v>
@@ -30590,7 +30590,7 @@
         <v>138</v>
       </c>
       <c r="AA333">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB333">
         <v>8000</v>
@@ -30679,7 +30679,7 @@
         <v>138</v>
       </c>
       <c r="AA334">
-        <v>10</v>
+        <v>15.36574074074072</v>
       </c>
       <c r="AB334">
         <v>8000</v>
@@ -30768,7 +30768,7 @@
         <v>138</v>
       </c>
       <c r="AA335">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB335">
         <v>8000</v>
@@ -30860,7 +30860,7 @@
         <v>138</v>
       </c>
       <c r="AA336">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB336">
         <v>8000</v>
@@ -30949,7 +30949,7 @@
         <v>138</v>
       </c>
       <c r="AA337">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB337">
         <v>8000</v>
@@ -31038,7 +31038,7 @@
         <v>138</v>
       </c>
       <c r="AA338">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB338">
         <v>8000</v>
@@ -31130,7 +31130,7 @@
         <v>138</v>
       </c>
       <c r="AA339">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB339">
         <v>8000</v>
@@ -31219,7 +31219,7 @@
         <v>138</v>
       </c>
       <c r="AA340">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB340">
         <v>8000</v>
@@ -31308,7 +31308,7 @@
         <v>138</v>
       </c>
       <c r="AA341">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB341">
         <v>8000</v>
@@ -31397,7 +31397,7 @@
         <v>138</v>
       </c>
       <c r="AA342">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB342">
         <v>8000</v>
@@ -31486,7 +31486,7 @@
         <v>138</v>
       </c>
       <c r="AA343">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB343">
         <v>8000</v>
@@ -31575,7 +31575,7 @@
         <v>138</v>
       </c>
       <c r="AA344">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB344">
         <v>8000</v>
@@ -31664,7 +31664,7 @@
         <v>138</v>
       </c>
       <c r="AA345">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB345">
         <v>8000</v>
@@ -31753,7 +31753,7 @@
         <v>138</v>
       </c>
       <c r="AA346">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB346">
         <v>8000</v>
@@ -31842,7 +31842,7 @@
         <v>138</v>
       </c>
       <c r="AA347">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB347">
         <v>8000</v>
@@ -31931,7 +31931,7 @@
         <v>138</v>
       </c>
       <c r="AA348">
-        <v>10</v>
+        <v>13.46442495126706</v>
       </c>
       <c r="AB348">
         <v>8000</v>
@@ -37734,7 +37734,7 @@
         <v>138</v>
       </c>
       <c r="AA413">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB413">
         <v>8000</v>
@@ -37823,7 +37823,7 @@
         <v>138</v>
       </c>
       <c r="AA414">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB414">
         <v>8000</v>
@@ -37915,7 +37915,7 @@
         <v>138</v>
       </c>
       <c r="AA415">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB415">
         <v>8000</v>
@@ -38007,7 +38007,7 @@
         <v>138</v>
       </c>
       <c r="AA416">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB416">
         <v>8000</v>
@@ -38096,7 +38096,7 @@
         <v>138</v>
       </c>
       <c r="AA417">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB417">
         <v>8000</v>
@@ -38185,7 +38185,7 @@
         <v>138</v>
       </c>
       <c r="AA418">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB418">
         <v>8000</v>
@@ -38274,7 +38274,7 @@
         <v>138</v>
       </c>
       <c r="AA419">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB419">
         <v>8000</v>
@@ -38363,7 +38363,7 @@
         <v>138</v>
       </c>
       <c r="AA420">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB420">
         <v>8000</v>
@@ -38452,7 +38452,7 @@
         <v>138</v>
       </c>
       <c r="AA421">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB421">
         <v>8000</v>
@@ -38541,7 +38541,7 @@
         <v>138</v>
       </c>
       <c r="AA422">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB422">
         <v>8000</v>
@@ -38630,7 +38630,7 @@
         <v>138</v>
       </c>
       <c r="AA423">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB423">
         <v>8000</v>
@@ -38719,7 +38719,7 @@
         <v>138</v>
       </c>
       <c r="AA424">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB424">
         <v>8000</v>
@@ -38808,7 +38808,7 @@
         <v>138</v>
       </c>
       <c r="AA425">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB425">
         <v>8000</v>
@@ -38897,7 +38897,7 @@
         <v>138</v>
       </c>
       <c r="AA426">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB426">
         <v>8000</v>
@@ -38986,7 +38986,7 @@
         <v>138</v>
       </c>
       <c r="AA427">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB427">
         <v>8000</v>
@@ -39075,7 +39075,7 @@
         <v>138</v>
       </c>
       <c r="AA428">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB428">
         <v>8000</v>
@@ -39164,7 +39164,7 @@
         <v>138</v>
       </c>
       <c r="AA429">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB429">
         <v>8000</v>
@@ -39253,7 +39253,7 @@
         <v>138</v>
       </c>
       <c r="AA430">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB430">
         <v>8000</v>
@@ -39342,7 +39342,7 @@
         <v>138</v>
       </c>
       <c r="AA431">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB431">
         <v>8000</v>
@@ -39434,7 +39434,7 @@
         <v>138</v>
       </c>
       <c r="AA432">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB432">
         <v>8000</v>
@@ -39526,7 +39526,7 @@
         <v>138</v>
       </c>
       <c r="AA433">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB433">
         <v>8000</v>
@@ -39618,7 +39618,7 @@
         <v>138</v>
       </c>
       <c r="AA434">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB434">
         <v>8000</v>
@@ -39707,7 +39707,7 @@
         <v>138</v>
       </c>
       <c r="AA435">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB435">
         <v>8000</v>
@@ -39796,7 +39796,7 @@
         <v>138</v>
       </c>
       <c r="AA436">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB436">
         <v>8000</v>
@@ -39885,7 +39885,7 @@
         <v>138</v>
       </c>
       <c r="AA437">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB437">
         <v>8000</v>
@@ -39974,7 +39974,7 @@
         <v>138</v>
       </c>
       <c r="AA438">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB438">
         <v>8000</v>
@@ -40063,7 +40063,7 @@
         <v>138</v>
       </c>
       <c r="AA439">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB439">
         <v>8000</v>
@@ -40152,7 +40152,7 @@
         <v>138</v>
       </c>
       <c r="AA440">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB440">
         <v>8000</v>
@@ -40241,7 +40241,7 @@
         <v>138</v>
       </c>
       <c r="AA441">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB441">
         <v>8000</v>
@@ -40330,7 +40330,7 @@
         <v>138</v>
       </c>
       <c r="AA442">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB442">
         <v>8000</v>
@@ -40419,7 +40419,7 @@
         <v>138</v>
       </c>
       <c r="AA443">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB443">
         <v>8000</v>
@@ -40508,7 +40508,7 @@
         <v>138</v>
       </c>
       <c r="AA444">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB444">
         <v>8000</v>
@@ -40597,7 +40597,7 @@
         <v>138</v>
       </c>
       <c r="AA445">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB445">
         <v>8000</v>
@@ -40686,7 +40686,7 @@
         <v>138</v>
       </c>
       <c r="AA446">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB446">
         <v>8000</v>
@@ -40775,7 +40775,7 @@
         <v>138</v>
       </c>
       <c r="AA447">
-        <v>10</v>
+        <v>14.47727272727272</v>
       </c>
       <c r="AB447">
         <v>8000</v>
@@ -40864,7 +40864,7 @@
         <v>138</v>
       </c>
       <c r="AA448">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB448">
         <v>8000</v>
@@ -40953,7 +40953,7 @@
         <v>138</v>
       </c>
       <c r="AA449">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB449">
         <v>8000</v>
@@ -41042,7 +41042,7 @@
         <v>138</v>
       </c>
       <c r="AA450">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB450">
         <v>8000</v>
@@ -41131,7 +41131,7 @@
         <v>138</v>
       </c>
       <c r="AA451">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB451">
         <v>8000</v>
@@ -41220,7 +41220,7 @@
         <v>138</v>
       </c>
       <c r="AA452">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB452">
         <v>8000</v>
@@ -41309,7 +41309,7 @@
         <v>138</v>
       </c>
       <c r="AA453">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB453">
         <v>8000</v>
@@ -41401,7 +41401,7 @@
         <v>138</v>
       </c>
       <c r="AA454">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB454">
         <v>8000</v>
@@ -41490,7 +41490,7 @@
         <v>138</v>
       </c>
       <c r="AA455">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB455">
         <v>8000</v>
@@ -41579,7 +41579,7 @@
         <v>138</v>
       </c>
       <c r="AA456">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB456">
         <v>8000</v>
@@ -41668,7 +41668,7 @@
         <v>138</v>
       </c>
       <c r="AA457">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB457">
         <v>8000</v>
@@ -41757,7 +41757,7 @@
         <v>138</v>
       </c>
       <c r="AA458">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB458">
         <v>8000</v>
@@ -41846,7 +41846,7 @@
         <v>138</v>
       </c>
       <c r="AA459">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB459">
         <v>8000</v>
@@ -41935,7 +41935,7 @@
         <v>138</v>
       </c>
       <c r="AA460">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB460">
         <v>8000</v>
@@ -42027,7 +42027,7 @@
         <v>138</v>
       </c>
       <c r="AA461">
-        <v>10</v>
+        <v>19.65277777777778</v>
       </c>
       <c r="AB461">
         <v>8000</v>
@@ -43368,7 +43368,7 @@
         <v>138</v>
       </c>
       <c r="AA476">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB476">
         <v>8000</v>
@@ -43457,7 +43457,7 @@
         <v>138</v>
       </c>
       <c r="AA477">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB477">
         <v>8000</v>
@@ -43549,7 +43549,7 @@
         <v>138</v>
       </c>
       <c r="AA478">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB478">
         <v>8000</v>
@@ -43638,7 +43638,7 @@
         <v>138</v>
       </c>
       <c r="AA479">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB479">
         <v>8000</v>
@@ -43727,7 +43727,7 @@
         <v>138</v>
       </c>
       <c r="AA480">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB480">
         <v>8000</v>
@@ -43816,7 +43816,7 @@
         <v>138</v>
       </c>
       <c r="AA481">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB481">
         <v>8000</v>
@@ -43905,7 +43905,7 @@
         <v>138</v>
       </c>
       <c r="AA482">
-        <v>10</v>
+        <v>12.93898809523811</v>
       </c>
       <c r="AB482">
         <v>8000</v>
@@ -43994,7 +43994,7 @@
         <v>138</v>
       </c>
       <c r="AA483">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB483">
         <v>8000</v>
@@ -44083,7 +44083,7 @@
         <v>138</v>
       </c>
       <c r="AA484">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB484">
         <v>8000</v>
@@ -44172,7 +44172,7 @@
         <v>138</v>
       </c>
       <c r="AA485">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB485">
         <v>8000</v>
@@ -44261,7 +44261,7 @@
         <v>138</v>
       </c>
       <c r="AA486">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB486">
         <v>8000</v>
@@ -44350,7 +44350,7 @@
         <v>138</v>
       </c>
       <c r="AA487">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB487">
         <v>8000</v>
@@ -44439,7 +44439,7 @@
         <v>138</v>
       </c>
       <c r="AA488">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB488">
         <v>8000</v>
@@ -44528,7 +44528,7 @@
         <v>138</v>
       </c>
       <c r="AA489">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB489">
         <v>8000</v>
@@ -44617,7 +44617,7 @@
         <v>138</v>
       </c>
       <c r="AA490">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB490">
         <v>8000</v>
@@ -44706,7 +44706,7 @@
         <v>138</v>
       </c>
       <c r="AA491">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB491">
         <v>8000</v>
@@ -44795,7 +44795,7 @@
         <v>138</v>
       </c>
       <c r="AA492">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB492">
         <v>8000</v>
@@ -44887,7 +44887,7 @@
         <v>138</v>
       </c>
       <c r="AA493">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB493">
         <v>8000</v>
@@ -44979,7 +44979,7 @@
         <v>138</v>
       </c>
       <c r="AA494">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB494">
         <v>8000</v>
@@ -45068,7 +45068,7 @@
         <v>138</v>
       </c>
       <c r="AA495">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB495">
         <v>8000</v>
@@ -45157,7 +45157,7 @@
         <v>138</v>
       </c>
       <c r="AA496">
-        <v>10</v>
+        <v>1.925925925925943</v>
       </c>
       <c r="AB496">
         <v>8000</v>
